--- a/www/ig/fhir/annuaire/ValueSet-VS-TRE-R301-SourceInformationInstallation.xlsx
+++ b/www/ig/fhir/annuaire/ValueSet-VS-TRE-R301-SourceInformationInstallation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/ValueSet-VS-TRE-R301-SourceInformationInstallation.xlsx
+++ b/www/ig/fhir/annuaire/ValueSet-VS-TRE-R301-SourceInformationInstallation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
